--- a/src/main/resources/usersGmail.xlsx
+++ b/src/main/resources/usersGmail.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>seleniumtest581@gmail.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">dachkevych13@gmail.com </t>
   </si>
   <si>
@@ -28,6 +25,9 @@
   </si>
   <si>
     <t>Some text</t>
+  </si>
+  <si>
+    <t>seleniumtest581@gmail.com</t>
   </si>
   <si>
     <t>test2018</t>
@@ -428,19 +428,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
